--- a/Current/HTML elems/None.xlsx
+++ b/Current/HTML elems/None.xlsx
@@ -424,7 +424,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KFNrWW9R0_8</t>
+          <t>https://www.uxmatters.com/</t>
         </is>
       </c>
     </row>
